--- a/data/evaluation/evaluation_South_Summer_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1473.102650896122</v>
+        <v>1476.577642774208</v>
       </c>
       <c r="C4" t="n">
-        <v>6845195.268384766</v>
+        <v>6872656.834893859</v>
       </c>
       <c r="D4" t="n">
-        <v>2616.332407853552</v>
+        <v>2621.575258292971</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3669447063308517</v>
+        <v>-0.3724286175262757</v>
       </c>
     </row>
     <row r="5">
